--- a/SVM/Prediction/Bow/4/Ironic/predict.xlsx
+++ b/SVM/Prediction/Bow/4/Ironic/predict.xlsx
@@ -11967,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -22159,7 +22159,7 @@
         <v>0</v>
       </c>
       <c r="D742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="D912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -25575,7 +25575,7 @@
         <v>0</v>
       </c>
       <c r="D986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -26583,7 +26583,7 @@
         <v>0</v>
       </c>
       <c r="D1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -29243,7 +29243,7 @@
         <v>1</v>
       </c>
       <c r="D1248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:4">
@@ -31133,7 +31133,7 @@
         <v>1</v>
       </c>
       <c r="D1383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1384" spans="1:4">
@@ -35711,7 +35711,7 @@
         <v>0</v>
       </c>
       <c r="D1710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1711" spans="1:4">
@@ -45917,7 +45917,7 @@
         <v>0</v>
       </c>
       <c r="D2439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2440" spans="1:4">
@@ -46813,7 +46813,7 @@
         <v>1</v>
       </c>
       <c r="D2503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2504" spans="1:4">
@@ -48339,7 +48339,7 @@
         <v>0</v>
       </c>
       <c r="D2612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2613" spans="1:4">
@@ -50481,7 +50481,7 @@
         <v>0</v>
       </c>
       <c r="D2765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -50607,7 +50607,7 @@
         <v>0</v>
       </c>
       <c r="D2774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2775" spans="1:4">
@@ -50635,7 +50635,7 @@
         <v>0</v>
       </c>
       <c r="D2776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2777" spans="1:4">
@@ -50985,7 +50985,7 @@
         <v>0</v>
       </c>
       <c r="D2801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2802" spans="1:4">
@@ -51727,7 +51727,7 @@
         <v>0</v>
       </c>
       <c r="D2854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2855" spans="1:4">
@@ -51839,7 +51839,7 @@
         <v>0</v>
       </c>
       <c r="D2862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2863" spans="1:4">
@@ -51993,7 +51993,7 @@
         <v>0</v>
       </c>
       <c r="D2873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2874" spans="1:4">
@@ -52217,7 +52217,7 @@
         <v>1</v>
       </c>
       <c r="D2889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2890" spans="1:4">
@@ -52273,7 +52273,7 @@
         <v>0</v>
       </c>
       <c r="D2893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2894" spans="1:4">
@@ -52497,7 +52497,7 @@
         <v>1</v>
       </c>
       <c r="D2909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2910" spans="1:4">
@@ -52721,7 +52721,7 @@
         <v>1</v>
       </c>
       <c r="D2925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2926" spans="1:4">
@@ -52959,7 +52959,7 @@
         <v>0</v>
       </c>
       <c r="D2942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2943" spans="1:4">
@@ -53001,7 +53001,7 @@
         <v>0</v>
       </c>
       <c r="D2945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2946" spans="1:4">
@@ -53169,7 +53169,7 @@
         <v>0</v>
       </c>
       <c r="D2957">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2958" spans="1:4">
@@ -53253,7 +53253,7 @@
         <v>1</v>
       </c>
       <c r="D2963">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2964" spans="1:4">
@@ -53393,7 +53393,7 @@
         <v>0</v>
       </c>
       <c r="D2973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2974" spans="1:4">
@@ -53533,7 +53533,7 @@
         <v>0</v>
       </c>
       <c r="D2983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2984" spans="1:4">
@@ -53659,7 +53659,7 @@
         <v>0</v>
       </c>
       <c r="D2992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2993" spans="1:4">
@@ -54205,7 +54205,7 @@
         <v>0</v>
       </c>
       <c r="D3031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3032" spans="1:4">
@@ -54359,7 +54359,7 @@
         <v>0</v>
       </c>
       <c r="D3042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3043" spans="1:4">
@@ -54429,7 +54429,7 @@
         <v>0</v>
       </c>
       <c r="D3047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3048" spans="1:4">
@@ -54597,7 +54597,7 @@
         <v>1</v>
       </c>
       <c r="D3059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3060" spans="1:4">
@@ -55115,7 +55115,7 @@
         <v>0</v>
       </c>
       <c r="D3096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3097" spans="1:4">
@@ -55353,7 +55353,7 @@
         <v>1</v>
       </c>
       <c r="D3113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3114" spans="1:4">
@@ -55437,7 +55437,7 @@
         <v>0</v>
       </c>
       <c r="D3119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3120" spans="1:4">
@@ -55759,7 +55759,7 @@
         <v>0</v>
       </c>
       <c r="D3142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3143" spans="1:4">
@@ -55787,7 +55787,7 @@
         <v>1</v>
       </c>
       <c r="D3144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3145" spans="1:4">
@@ -55843,7 +55843,7 @@
         <v>0</v>
       </c>
       <c r="D3148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3149" spans="1:4">
@@ -56207,7 +56207,7 @@
         <v>0</v>
       </c>
       <c r="D3174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3175" spans="1:4">
@@ -56501,7 +56501,7 @@
         <v>1</v>
       </c>
       <c r="D3195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3196" spans="1:4">
@@ -56557,7 +56557,7 @@
         <v>0</v>
       </c>
       <c r="D3199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3200" spans="1:4">
@@ -56809,7 +56809,7 @@
         <v>0</v>
       </c>
       <c r="D3217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3218" spans="1:4">
@@ -57635,7 +57635,7 @@
         <v>0</v>
       </c>
       <c r="D3276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3277" spans="1:4">
@@ -57887,7 +57887,7 @@
         <v>1</v>
       </c>
       <c r="D3294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3295" spans="1:4">
@@ -58503,7 +58503,7 @@
         <v>0</v>
       </c>
       <c r="D3338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3339" spans="1:4">
@@ -59693,7 +59693,7 @@
         <v>1</v>
       </c>
       <c r="D3423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3424" spans="1:4">
@@ -60127,7 +60127,7 @@
         <v>1</v>
       </c>
       <c r="D3454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3455" spans="1:4">
@@ -60239,7 +60239,7 @@
         <v>1</v>
       </c>
       <c r="D3462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3463" spans="1:4">
@@ -60561,7 +60561,7 @@
         <v>0</v>
       </c>
       <c r="D3485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3486" spans="1:4">
@@ -60757,7 +60757,7 @@
         <v>1</v>
       </c>
       <c r="D3499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3500" spans="1:4">
@@ -60813,7 +60813,7 @@
         <v>1</v>
       </c>
       <c r="D3503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3504" spans="1:4">
@@ -60827,7 +60827,7 @@
         <v>0</v>
       </c>
       <c r="D3504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3505" spans="1:4">
@@ -62073,7 +62073,7 @@
         <v>0</v>
       </c>
       <c r="D3593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3594" spans="1:4">
@@ -62913,7 +62913,7 @@
         <v>0</v>
       </c>
       <c r="D3653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3654" spans="1:4">
@@ -63011,7 +63011,7 @@
         <v>0</v>
       </c>
       <c r="D3660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3661" spans="1:4">
@@ -63277,7 +63277,7 @@
         <v>0</v>
       </c>
       <c r="D3679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3680" spans="1:4">
@@ -64201,7 +64201,7 @@
         <v>1</v>
       </c>
       <c r="D3745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3746" spans="1:4">
@@ -65195,7 +65195,7 @@
         <v>0</v>
       </c>
       <c r="D3816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3817" spans="1:4">
@@ -65405,7 +65405,7 @@
         <v>0</v>
       </c>
       <c r="D3831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3832" spans="1:4">
@@ -65909,7 +65909,7 @@
         <v>0</v>
       </c>
       <c r="D3867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3868" spans="1:4">
@@ -66007,7 +66007,7 @@
         <v>0</v>
       </c>
       <c r="D3874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3875" spans="1:4">
@@ -66665,7 +66665,7 @@
         <v>0</v>
       </c>
       <c r="D3921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3922" spans="1:4">
@@ -66959,7 +66959,7 @@
         <v>0</v>
       </c>
       <c r="D3942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3943" spans="1:4">
@@ -67099,7 +67099,7 @@
         <v>1</v>
       </c>
       <c r="D3952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3953" spans="1:4">
@@ -67575,7 +67575,7 @@
         <v>0</v>
       </c>
       <c r="D3986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3987" spans="1:4">
@@ -67841,7 +67841,7 @@
         <v>1</v>
       </c>
       <c r="D4005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4006" spans="1:4">
@@ -67981,7 +67981,7 @@
         <v>0</v>
       </c>
       <c r="D4015">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4016" spans="1:4">
@@ -68289,7 +68289,7 @@
         <v>1</v>
       </c>
       <c r="D4037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4038" spans="1:4">
@@ -68429,7 +68429,7 @@
         <v>0</v>
       </c>
       <c r="D4047">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4048" spans="1:4">
@@ -68457,7 +68457,7 @@
         <v>1</v>
       </c>
       <c r="D4049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4050" spans="1:4">
@@ -68919,7 +68919,7 @@
         <v>1</v>
       </c>
       <c r="D4082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4083" spans="1:4">
@@ -69101,7 +69101,7 @@
         <v>1</v>
       </c>
       <c r="D4095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4096" spans="1:4">
@@ -69479,7 +69479,7 @@
         <v>0</v>
       </c>
       <c r="D4122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4123" spans="1:4">
@@ -69675,7 +69675,7 @@
         <v>0</v>
       </c>
       <c r="D4136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4137" spans="1:4">
@@ -69731,7 +69731,7 @@
         <v>0</v>
       </c>
       <c r="D4140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4141" spans="1:4">
@@ -69927,7 +69927,7 @@
         <v>1</v>
       </c>
       <c r="D4154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4155" spans="1:4">
@@ -70151,7 +70151,7 @@
         <v>0</v>
       </c>
       <c r="D4170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4171" spans="1:4">
@@ -70221,7 +70221,7 @@
         <v>1</v>
       </c>
       <c r="D4175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4176" spans="1:4">
@@ -70305,7 +70305,7 @@
         <v>1</v>
       </c>
       <c r="D4181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4182" spans="1:4">
@@ -70319,7 +70319,7 @@
         <v>1</v>
       </c>
       <c r="D4182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4183" spans="1:4">
@@ -70347,7 +70347,7 @@
         <v>0</v>
       </c>
       <c r="D4184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4185" spans="1:4">
@@ -70403,7 +70403,7 @@
         <v>1</v>
       </c>
       <c r="D4188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4189" spans="1:4">
@@ -70753,7 +70753,7 @@
         <v>1</v>
       </c>
       <c r="D4213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4214" spans="1:4">
@@ -70893,7 +70893,7 @@
         <v>1</v>
       </c>
       <c r="D4223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4224" spans="1:4">
@@ -71075,7 +71075,7 @@
         <v>0</v>
       </c>
       <c r="D4236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4237" spans="1:4">
@@ -71411,7 +71411,7 @@
         <v>0</v>
       </c>
       <c r="D4260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4261" spans="1:4">
@@ -72055,7 +72055,7 @@
         <v>0</v>
       </c>
       <c r="D4306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4307" spans="1:4">
@@ -72251,7 +72251,7 @@
         <v>0</v>
       </c>
       <c r="D4320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4321" spans="1:4">
@@ -73021,7 +73021,7 @@
         <v>0</v>
       </c>
       <c r="D4375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4376" spans="1:4">
@@ -73441,7 +73441,7 @@
         <v>1</v>
       </c>
       <c r="D4405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4406" spans="1:4">
@@ -73833,7 +73833,7 @@
         <v>1</v>
       </c>
       <c r="D4433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4434" spans="1:4">
@@ -74001,7 +74001,7 @@
         <v>1</v>
       </c>
       <c r="D4445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4446" spans="1:4">
@@ -74197,7 +74197,7 @@
         <v>1</v>
       </c>
       <c r="D4459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4460" spans="1:4">
@@ -74687,7 +74687,7 @@
         <v>1</v>
       </c>
       <c r="D4494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4495" spans="1:4">
@@ -74953,7 +74953,7 @@
         <v>0</v>
       </c>
       <c r="D4513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4514" spans="1:4">
@@ -75625,7 +75625,7 @@
         <v>0</v>
       </c>
       <c r="D4561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4562" spans="1:4">
@@ -75639,7 +75639,7 @@
         <v>0</v>
       </c>
       <c r="D4562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4563" spans="1:4">
@@ -75723,7 +75723,7 @@
         <v>0</v>
       </c>
       <c r="D4568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4569" spans="1:4">
@@ -75779,7 +75779,7 @@
         <v>1</v>
       </c>
       <c r="D4572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4573" spans="1:4">
@@ -76115,7 +76115,7 @@
         <v>1</v>
       </c>
       <c r="D4596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4597" spans="1:4">
@@ -76535,7 +76535,7 @@
         <v>1</v>
       </c>
       <c r="D4626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4627" spans="1:4">
@@ -77501,7 +77501,7 @@
         <v>0</v>
       </c>
       <c r="D4695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4696" spans="1:4">
@@ -77711,7 +77711,7 @@
         <v>1</v>
       </c>
       <c r="D4710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4711" spans="1:4">
@@ -78299,7 +78299,7 @@
         <v>1</v>
       </c>
       <c r="D4752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4753" spans="1:4">
@@ -78341,7 +78341,7 @@
         <v>0</v>
       </c>
       <c r="D4755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4756" spans="1:4">
@@ -78509,7 +78509,7 @@
         <v>1</v>
       </c>
       <c r="D4767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4768" spans="1:4">
@@ -78663,7 +78663,7 @@
         <v>0</v>
       </c>
       <c r="D4778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4779" spans="1:4">
@@ -79013,7 +79013,7 @@
         <v>0</v>
       </c>
       <c r="D4803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4804" spans="1:4">
@@ -80091,7 +80091,7 @@
         <v>1</v>
       </c>
       <c r="D4880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4881" spans="1:4">
@@ -80511,7 +80511,7 @@
         <v>0</v>
       </c>
       <c r="D4910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4911" spans="1:4">
@@ -80609,7 +80609,7 @@
         <v>1</v>
       </c>
       <c r="D4917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4918" spans="1:4">
@@ -80749,7 +80749,7 @@
         <v>1</v>
       </c>
       <c r="D4927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4928" spans="1:4">
@@ -80791,7 +80791,7 @@
         <v>0</v>
       </c>
       <c r="D4930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4931" spans="1:4">
@@ -80903,7 +80903,7 @@
         <v>1</v>
       </c>
       <c r="D4938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4939" spans="1:4">
@@ -81575,7 +81575,7 @@
         <v>0</v>
       </c>
       <c r="D4986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4987" spans="1:4">
@@ -82079,7 +82079,7 @@
         <v>1</v>
       </c>
       <c r="D5022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5023" spans="1:4">
@@ -82835,7 +82835,7 @@
         <v>0</v>
       </c>
       <c r="D5076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5077" spans="1:4">
@@ -83087,7 +83087,7 @@
         <v>1</v>
       </c>
       <c r="D5094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5095" spans="1:4">
@@ -83143,7 +83143,7 @@
         <v>0</v>
       </c>
       <c r="D5098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5099" spans="1:4">
@@ -83283,7 +83283,7 @@
         <v>1</v>
       </c>
       <c r="D5108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5109" spans="1:4">
@@ -83325,7 +83325,7 @@
         <v>1</v>
       </c>
       <c r="D5111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5112" spans="1:4">
@@ -83507,7 +83507,7 @@
         <v>1</v>
       </c>
       <c r="D5124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5125" spans="1:4">
@@ -84949,7 +84949,7 @@
         <v>0</v>
       </c>
       <c r="D5227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5228" spans="1:4">
@@ -85131,7 +85131,7 @@
         <v>0</v>
       </c>
       <c r="D5240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5241" spans="1:4">
@@ -85145,7 +85145,7 @@
         <v>0</v>
       </c>
       <c r="D5241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5242" spans="1:4">
@@ -85397,7 +85397,7 @@
         <v>0</v>
       </c>
       <c r="D5259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5260" spans="1:4">
@@ -85453,7 +85453,7 @@
         <v>1</v>
       </c>
       <c r="D5263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5264" spans="1:4">
@@ -85943,7 +85943,7 @@
         <v>1</v>
       </c>
       <c r="D5298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5299" spans="1:4">
@@ -86041,7 +86041,7 @@
         <v>0</v>
       </c>
       <c r="D5305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5306" spans="1:4">
@@ -86097,7 +86097,7 @@
         <v>0</v>
       </c>
       <c r="D5309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5310" spans="1:4">
@@ -86629,7 +86629,7 @@
         <v>0</v>
       </c>
       <c r="D5347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5348" spans="1:4">
@@ -87203,7 +87203,7 @@
         <v>0</v>
       </c>
       <c r="D5388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5389" spans="1:4">
@@ -87385,7 +87385,7 @@
         <v>1</v>
       </c>
       <c r="D5401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5402" spans="1:4">
@@ -87469,7 +87469,7 @@
         <v>0</v>
       </c>
       <c r="D5407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5408" spans="1:4">
@@ -87693,7 +87693,7 @@
         <v>0</v>
       </c>
       <c r="D5423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5424" spans="1:4">
@@ -87861,7 +87861,7 @@
         <v>0</v>
       </c>
       <c r="D5435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5436" spans="1:4">
@@ -87945,7 +87945,7 @@
         <v>1</v>
       </c>
       <c r="D5441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5442" spans="1:4">
@@ -87973,7 +87973,7 @@
         <v>0</v>
       </c>
       <c r="D5443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5444" spans="1:4">
@@ -88029,7 +88029,7 @@
         <v>0</v>
       </c>
       <c r="D5447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5448" spans="1:4">
@@ -88043,7 +88043,7 @@
         <v>1</v>
       </c>
       <c r="D5448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5449" spans="1:4">
@@ -88197,7 +88197,7 @@
         <v>0</v>
       </c>
       <c r="D5459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5460" spans="1:4">
@@ -88799,7 +88799,7 @@
         <v>0</v>
       </c>
       <c r="D5502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5503" spans="1:4">
@@ -89331,7 +89331,7 @@
         <v>0</v>
       </c>
       <c r="D5540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5541" spans="1:4">
@@ -90493,7 +90493,7 @@
         <v>0</v>
       </c>
       <c r="D5623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5624" spans="1:4">
@@ -91151,7 +91151,7 @@
         <v>1</v>
       </c>
       <c r="D5670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5671" spans="1:4">
@@ -93349,7 +93349,7 @@
         <v>1</v>
       </c>
       <c r="D5827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5828" spans="1:4">
@@ -93559,7 +93559,7 @@
         <v>0</v>
       </c>
       <c r="D5842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5843" spans="1:4">
@@ -95659,7 +95659,7 @@
         <v>0</v>
       </c>
       <c r="D5992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5993" spans="1:4">
@@ -96499,7 +96499,7 @@
         <v>0</v>
       </c>
       <c r="D6052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6053" spans="1:4">
@@ -96625,7 +96625,7 @@
         <v>0</v>
       </c>
       <c r="D6061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6062" spans="1:4">
@@ -98571,7 +98571,7 @@
         <v>0</v>
       </c>
       <c r="D6200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6201" spans="1:4">
@@ -98725,7 +98725,7 @@
         <v>1</v>
       </c>
       <c r="D6211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6212" spans="1:4">
@@ -100587,7 +100587,7 @@
         <v>0</v>
       </c>
       <c r="D6344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6345" spans="1:4">
@@ -101133,7 +101133,7 @@
         <v>1</v>
       </c>
       <c r="D6383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6384" spans="1:4">
@@ -103653,7 +103653,7 @@
         <v>1</v>
       </c>
       <c r="D6563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6564" spans="1:4">
